--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Gdf9</t>
   </si>
   <si>
     <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H2">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I2">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J2">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N2">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O2">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P2">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q2">
-        <v>70.43701382403734</v>
+        <v>74.05782818179433</v>
       </c>
       <c r="R2">
-        <v>633.933124416336</v>
+        <v>666.520453636149</v>
       </c>
       <c r="S2">
-        <v>0.07137494192709919</v>
+        <v>0.06769930917879982</v>
       </c>
       <c r="T2">
-        <v>0.07137494192709919</v>
+        <v>0.06769930917879984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H3">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I3">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J3">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>120.711086</v>
       </c>
       <c r="O3">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P3">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q3">
-        <v>63.62209228590311</v>
+        <v>64.88664821049622</v>
       </c>
       <c r="R3">
-        <v>572.598830573128</v>
+        <v>583.979833894466</v>
       </c>
       <c r="S3">
-        <v>0.06446927397477503</v>
+        <v>0.05931555605431974</v>
       </c>
       <c r="T3">
-        <v>0.06446927397477506</v>
+        <v>0.05931555605431975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H4">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I4">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J4">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N4">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O4">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P4">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q4">
-        <v>31.87617031344356</v>
+        <v>38.06277658307922</v>
       </c>
       <c r="R4">
-        <v>286.885532820992</v>
+        <v>342.564989247713</v>
       </c>
       <c r="S4">
-        <v>0.03230062834100351</v>
+        <v>0.03479475085032163</v>
       </c>
       <c r="T4">
-        <v>0.03230062834100353</v>
+        <v>0.03479475085032165</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H5">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I5">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J5">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N5">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O5">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P5">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q5">
-        <v>25.39007046854756</v>
+        <v>31.004913853026</v>
       </c>
       <c r="R5">
-        <v>228.510634216928</v>
+        <v>279.044224677234</v>
       </c>
       <c r="S5">
-        <v>0.02572816061942566</v>
+        <v>0.02834286800641099</v>
       </c>
       <c r="T5">
-        <v>0.02572816061942566</v>
+        <v>0.028342868006411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H6">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I6">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J6">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N6">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O6">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P6">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q6">
-        <v>36.98611312332888</v>
+        <v>32.59752996837311</v>
       </c>
       <c r="R6">
-        <v>332.87501810996</v>
+        <v>293.3777697153579</v>
       </c>
       <c r="S6">
-        <v>0.0374786143387844</v>
+        <v>0.02979874395420888</v>
       </c>
       <c r="T6">
-        <v>0.0374786143387844</v>
+        <v>0.02979874395420888</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>13.129937</v>
       </c>
       <c r="I7">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J7">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N7">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O7">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P7">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q7">
-        <v>194.9666270854093</v>
+        <v>200.9939202886137</v>
       </c>
       <c r="R7">
-        <v>1754.699643768684</v>
+        <v>1808.945282597523</v>
       </c>
       <c r="S7">
-        <v>0.1975627717652421</v>
+        <v>0.1837368160361872</v>
       </c>
       <c r="T7">
-        <v>0.1975627717652422</v>
+        <v>0.1837368160361872</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>13.129937</v>
       </c>
       <c r="I8">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J8">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>120.711086</v>
       </c>
       <c r="O8">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P8">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q8">
         <v>176.1032171535091</v>
@@ -948,10 +948,10 @@
         <v>1584.928954381582</v>
       </c>
       <c r="S8">
-        <v>0.1784481796588832</v>
+        <v>0.1609831997259075</v>
       </c>
       <c r="T8">
-        <v>0.1784481796588832</v>
+        <v>0.1609831997259075</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>13.129937</v>
       </c>
       <c r="I9">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J9">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N9">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O9">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P9">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q9">
-        <v>88.23186948182756</v>
+        <v>103.3028765537501</v>
       </c>
       <c r="R9">
-        <v>794.0868253364481</v>
+        <v>929.725888983751</v>
       </c>
       <c r="S9">
-        <v>0.08940675106013278</v>
+        <v>0.09443341170773006</v>
       </c>
       <c r="T9">
-        <v>0.08940675106013281</v>
+        <v>0.09443341170773011</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>13.129937</v>
       </c>
       <c r="I10">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J10">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N10">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O10">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P10">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q10">
-        <v>70.27862386500355</v>
+        <v>84.147744222702</v>
       </c>
       <c r="R10">
-        <v>632.507614785032</v>
+        <v>757.3296980043181</v>
       </c>
       <c r="S10">
-        <v>0.07121444287249541</v>
+        <v>0.07692291676238626</v>
       </c>
       <c r="T10">
-        <v>0.07121444287249543</v>
+        <v>0.07692291676238627</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>13.129937</v>
       </c>
       <c r="I11">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J11">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N11">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O11">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P11">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q11">
-        <v>102.3759715689989</v>
+        <v>88.47012531862956</v>
       </c>
       <c r="R11">
-        <v>921.3837441209899</v>
+        <v>796.2311278676659</v>
       </c>
       <c r="S11">
-        <v>0.1037391937670992</v>
+        <v>0.08087418324408055</v>
       </c>
       <c r="T11">
-        <v>0.1037391937670992</v>
+        <v>0.08087418324408056</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H12">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I12">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J12">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N12">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O12">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P12">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q12">
-        <v>16.96197005767467</v>
+        <v>6.666707941359667</v>
       </c>
       <c r="R12">
-        <v>152.657730519072</v>
+        <v>60.000371472237</v>
       </c>
       <c r="S12">
-        <v>0.01718783296038276</v>
+        <v>0.006094312150485385</v>
       </c>
       <c r="T12">
-        <v>0.01718783296038276</v>
+        <v>0.006094312150485386</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H13">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I13">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J13">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>120.711086</v>
       </c>
       <c r="O13">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P13">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q13">
-        <v>15.32086563260622</v>
+        <v>5.841115565139778</v>
       </c>
       <c r="R13">
-        <v>137.887790693456</v>
+        <v>52.570040086258</v>
       </c>
       <c r="S13">
-        <v>0.01552487584910907</v>
+        <v>0.005339604175574634</v>
       </c>
       <c r="T13">
-        <v>0.01552487584910907</v>
+        <v>0.005339604175574635</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H14">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I14">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J14">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N14">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O14">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P14">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q14">
-        <v>7.676115398087112</v>
+        <v>3.426422582818778</v>
       </c>
       <c r="R14">
-        <v>69.08503858278401</v>
+        <v>30.837803245369</v>
       </c>
       <c r="S14">
-        <v>0.007778329333109933</v>
+        <v>0.003132233924576452</v>
       </c>
       <c r="T14">
-        <v>0.007778329333109934</v>
+        <v>0.003132233924576453</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H15">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I15">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J15">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N15">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O15">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P15">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q15">
-        <v>6.114194677895111</v>
+        <v>2.791071659538</v>
       </c>
       <c r="R15">
-        <v>55.027752101056</v>
+        <v>25.119644935842</v>
       </c>
       <c r="S15">
-        <v>0.006195610324366371</v>
+        <v>0.002551433492694558</v>
       </c>
       <c r="T15">
-        <v>0.006195610324366371</v>
+        <v>0.002551433492694558</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H16">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I16">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J16">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N16">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O16">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P16">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q16">
-        <v>8.906643102657778</v>
+        <v>2.934439440694889</v>
       </c>
       <c r="R16">
-        <v>80.15978792391999</v>
+        <v>26.40995496625399</v>
       </c>
       <c r="S16">
-        <v>0.00902524254940312</v>
+        <v>0.002682491882889218</v>
       </c>
       <c r="T16">
-        <v>0.00902524254940312</v>
+        <v>0.002682491882889218</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H17">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I17">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J17">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N17">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O17">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P17">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q17">
-        <v>22.09309162278533</v>
+        <v>29.00389863914434</v>
       </c>
       <c r="R17">
-        <v>198.837824605068</v>
+        <v>261.035087752299</v>
       </c>
       <c r="S17">
-        <v>0.02238727972633409</v>
+        <v>0.02651365763173572</v>
       </c>
       <c r="T17">
-        <v>0.02238727972633409</v>
+        <v>0.02651365763173572</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H18">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I18">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J18">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>120.711086</v>
       </c>
       <c r="O18">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P18">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q18">
-        <v>19.95554095489044</v>
+        <v>25.41211123706289</v>
       </c>
       <c r="R18">
-        <v>179.599868594014</v>
+        <v>228.709001133566</v>
       </c>
       <c r="S18">
-        <v>0.0202212657728129</v>
+        <v>0.02323025691896939</v>
       </c>
       <c r="T18">
-        <v>0.0202212657728129</v>
+        <v>0.02323025691896939</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H19">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I19">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J19">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N19">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O19">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P19">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q19">
-        <v>9.998197156366222</v>
+        <v>14.90684970169589</v>
       </c>
       <c r="R19">
-        <v>89.98377440729601</v>
+        <v>134.161647315263</v>
       </c>
       <c r="S19">
-        <v>0.01013133156374379</v>
+        <v>0.01362696492205665</v>
       </c>
       <c r="T19">
-        <v>0.0101313315637438</v>
+        <v>0.01362696492205665</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H20">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I20">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J20">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N20">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O20">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P20">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q20">
-        <v>7.963783850518222</v>
+        <v>12.142718748126</v>
       </c>
       <c r="R20">
-        <v>71.674054654664</v>
+        <v>109.284468733134</v>
       </c>
       <c r="S20">
-        <v>0.008069828333022422</v>
+        <v>0.01110015903764617</v>
       </c>
       <c r="T20">
-        <v>0.008069828333022423</v>
+        <v>0.01110015903764617</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H21">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I21">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J21">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N21">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O21">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P21">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q21">
-        <v>11.60096860502555</v>
+        <v>12.76644857540644</v>
       </c>
       <c r="R21">
-        <v>104.40871744523</v>
+        <v>114.898037178658</v>
       </c>
       <c r="S21">
-        <v>0.01175544526277504</v>
+        <v>0.01167033614731569</v>
       </c>
       <c r="T21">
-        <v>0.01175544526277504</v>
+        <v>0.01167033614731569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H22">
+        <v>1.697065</v>
+      </c>
+      <c r="I22">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J22">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>45.924193</v>
+      </c>
+      <c r="N22">
+        <v>137.772579</v>
+      </c>
+      <c r="O22">
+        <v>0.307792367338991</v>
+      </c>
+      <c r="P22">
+        <v>0.307792367338991</v>
+      </c>
+      <c r="Q22">
+        <v>25.97878019784833</v>
+      </c>
+      <c r="R22">
+        <v>233.809021780635</v>
+      </c>
+      <c r="S22">
+        <v>0.0237482723417829</v>
+      </c>
+      <c r="T22">
+        <v>0.0237482723417829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H23">
+        <v>1.697065</v>
+      </c>
+      <c r="I23">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J23">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>40.23702866666667</v>
+      </c>
+      <c r="N23">
+        <v>120.711086</v>
+      </c>
+      <c r="O23">
+        <v>0.2696759485354523</v>
+      </c>
+      <c r="P23">
+        <v>0.2696759485354523</v>
+      </c>
+      <c r="Q23">
+        <v>22.76161768473222</v>
+      </c>
+      <c r="R23">
+        <v>204.85455916259</v>
+      </c>
+      <c r="S23">
+        <v>0.02080733166068102</v>
+      </c>
+      <c r="T23">
+        <v>0.02080733166068102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H24">
+        <v>1.697065</v>
+      </c>
+      <c r="I24">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J24">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>23.60320766666667</v>
+      </c>
+      <c r="N24">
+        <v>70.809623</v>
+      </c>
+      <c r="O24">
+        <v>0.1581930283351338</v>
+      </c>
+      <c r="P24">
+        <v>0.1581930283351339</v>
+      </c>
+      <c r="Q24">
+        <v>13.35205920627722</v>
+      </c>
+      <c r="R24">
+        <v>120.168532856495</v>
+      </c>
+      <c r="S24">
+        <v>0.01220566693044901</v>
+      </c>
+      <c r="T24">
+        <v>0.01220566693044902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H25">
+        <v>1.697065</v>
+      </c>
+      <c r="I25">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J25">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.226538</v>
+      </c>
+      <c r="N25">
+        <v>57.679614</v>
+      </c>
+      <c r="O25">
+        <v>0.1288597852280838</v>
+      </c>
+      <c r="P25">
+        <v>0.1288597852280838</v>
+      </c>
+      <c r="Q25">
+        <v>10.87622823699</v>
+      </c>
+      <c r="R25">
+        <v>97.88605413290999</v>
+      </c>
+      <c r="S25">
+        <v>0.009942407928945816</v>
+      </c>
+      <c r="T25">
+        <v>0.009942407928945818</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H26">
+        <v>1.697065</v>
+      </c>
+      <c r="I26">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J26">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>20.21413933333333</v>
+      </c>
+      <c r="N26">
+        <v>60.64241799999999</v>
+      </c>
+      <c r="O26">
+        <v>0.1354788705623391</v>
+      </c>
+      <c r="P26">
+        <v>0.1354788705623391</v>
+      </c>
+      <c r="Q26">
+        <v>11.43490278924111</v>
+      </c>
+      <c r="R26">
+        <v>102.91412510317</v>
+      </c>
+      <c r="S26">
+        <v>0.01045311533384475</v>
+      </c>
+      <c r="T26">
+        <v>0.01045311533384475</v>
       </c>
     </row>
   </sheetData>
